--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="10455" windowHeight="5145"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="10455" windowHeight="5145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Явная схема</t>
   </si>
@@ -175,6 +175,114 @@
   </si>
   <si>
     <t>6.755318353386231 E173</t>
+  </si>
+  <si>
+    <t>0.08975979010256552</t>
+  </si>
+  <si>
+    <t>5.610393668391617</t>
+  </si>
+  <si>
+    <t>4.176371492599011</t>
+  </si>
+  <si>
+    <t>1.867850683909901</t>
+  </si>
+  <si>
+    <t>3.935937797312355</t>
+  </si>
+  <si>
+    <t>3.793768100419479</t>
+  </si>
+  <si>
+    <t>6.044327159988794</t>
+  </si>
+  <si>
+    <t>5.19156984717392</t>
+  </si>
+  <si>
+    <t>3.606767885959582</t>
+  </si>
+  <si>
+    <t>1.8436767824303364</t>
+  </si>
+  <si>
+    <t>0.8655369481702683</t>
+  </si>
+  <si>
+    <t>1.4735085729333601</t>
+  </si>
+  <si>
+    <t>0.5875985563298353</t>
+  </si>
+  <si>
+    <t>1.3278095833531518</t>
+  </si>
+  <si>
+    <t>0.4337868693889671</t>
+  </si>
+  <si>
+    <t>6.06615653640805</t>
+  </si>
+  <si>
+    <t>5.210279694392488</t>
+  </si>
+  <si>
+    <t>3.6161204796571877</t>
+  </si>
+  <si>
+    <t>1.8447775226184617</t>
+  </si>
+  <si>
+    <t>5.623959874502048</t>
+  </si>
+  <si>
+    <t>6.087295239007554</t>
+  </si>
+  <si>
+    <t>5.228569922536737</t>
+  </si>
+  <si>
+    <t>3.62573728143519</t>
+  </si>
+  <si>
+    <t>1.8458897097747433</t>
+  </si>
+  <si>
+    <t>1.3946448642025722e+49</t>
+  </si>
+  <si>
+    <t>3.2965076597225456e+36</t>
+  </si>
+  <si>
+    <t>7.1321618273466675e+22</t>
+  </si>
+  <si>
+    <t>2817150.0256266263</t>
+  </si>
+  <si>
+    <t>6.6647255580197515e+66</t>
+  </si>
+  <si>
+    <t>6.023893166066878e+54</t>
+  </si>
+  <si>
+    <t>2.60319619694146e+42</t>
+  </si>
+  <si>
+    <t>2.2565095947303354e+29</t>
+  </si>
+  <si>
+    <t>1.7243493012108681e+78</t>
+  </si>
+  <si>
+    <t>2.2054944582016933e+66</t>
+  </si>
+  <si>
+    <t>1.9646559879050212e+54</t>
+  </si>
+  <si>
+    <t>8.23156548070848e+41</t>
   </si>
 </sst>
 </file>
@@ -199,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -393,15 +501,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -413,11 +529,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -714,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,95 +854,95 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -831,95 +952,95 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -929,95 +1050,95 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1034,13 +1155,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>Явная схема</t>
   </si>
@@ -180,109 +180,136 @@
     <t>0.08975979010256552</t>
   </si>
   <si>
-    <t>5.610393668391617</t>
-  </si>
-  <si>
-    <t>4.176371492599011</t>
-  </si>
-  <si>
-    <t>1.867850683909901</t>
-  </si>
-  <si>
-    <t>3.935937797312355</t>
-  </si>
-  <si>
-    <t>3.793768100419479</t>
-  </si>
-  <si>
-    <t>6.044327159988794</t>
-  </si>
-  <si>
-    <t>5.19156984717392</t>
-  </si>
-  <si>
-    <t>3.606767885959582</t>
-  </si>
-  <si>
-    <t>1.8436767824303364</t>
-  </si>
-  <si>
-    <t>0.8655369481702683</t>
-  </si>
-  <si>
-    <t>1.4735085729333601</t>
-  </si>
-  <si>
-    <t>0.5875985563298353</t>
-  </si>
-  <si>
-    <t>1.3278095833531518</t>
-  </si>
-  <si>
-    <t>0.4337868693889671</t>
-  </si>
-  <si>
-    <t>6.06615653640805</t>
-  </si>
-  <si>
-    <t>5.210279694392488</t>
-  </si>
-  <si>
-    <t>3.6161204796571877</t>
-  </si>
-  <si>
-    <t>1.8447775226184617</t>
-  </si>
-  <si>
-    <t>5.623959874502048</t>
-  </si>
-  <si>
-    <t>6.087295239007554</t>
-  </si>
-  <si>
-    <t>5.228569922536737</t>
-  </si>
-  <si>
-    <t>3.62573728143519</t>
-  </si>
-  <si>
-    <t>1.8458897097747433</t>
-  </si>
-  <si>
-    <t>1.3946448642025722e+49</t>
-  </si>
-  <si>
-    <t>3.2965076597225456e+36</t>
-  </si>
-  <si>
-    <t>7.1321618273466675e+22</t>
-  </si>
-  <si>
-    <t>2817150.0256266263</t>
-  </si>
-  <si>
-    <t>6.6647255580197515e+66</t>
-  </si>
-  <si>
-    <t>6.023893166066878e+54</t>
-  </si>
-  <si>
-    <t>2.60319619694146e+42</t>
-  </si>
-  <si>
-    <t>2.2565095947303354e+29</t>
-  </si>
-  <si>
-    <t>1.7243493012108681e+78</t>
-  </si>
-  <si>
-    <t>2.2054944582016933e+66</t>
-  </si>
-  <si>
-    <t>1.9646559879050212e+54</t>
-  </si>
-  <si>
-    <t>8.23156548070848e+41</t>
+    <t>0.09192397936431718</t>
+  </si>
+  <si>
+    <t>0.0402020513164838</t>
+  </si>
+  <si>
+    <t>0.03564609275200237</t>
+  </si>
+  <si>
+    <t>0.03351770642945606</t>
+  </si>
+  <si>
+    <t>4.2728965502950766e+48</t>
+  </si>
+  <si>
+    <t>1.892444306478268e+75</t>
+  </si>
+  <si>
+    <t>1.2279496717945148e+99</t>
+  </si>
+  <si>
+    <t>7.864690074163468e+70</t>
+  </si>
+  <si>
+    <t>3.555314648723057e+66</t>
+  </si>
+  <si>
+    <t>1.1601326128129083e+113</t>
+  </si>
+  <si>
+    <t>4.138423440181413e+180</t>
+  </si>
+  <si>
+    <t>2.1295557040871742e+260</t>
+  </si>
+  <si>
+    <t>1.224380421884754e+78</t>
+  </si>
+  <si>
+    <t>5.447589683139568e+136</t>
+  </si>
+  <si>
+    <t>4.3957220001420157e+229</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>0.17630180091934244</t>
+  </si>
+  <si>
+    <t>0.08281074834163582</t>
+  </si>
+  <si>
+    <t>0.03542436857067632</t>
+  </si>
+  <si>
+    <t>0.02945917048889868</t>
+  </si>
+  <si>
+    <t>0.23523078770743444</t>
+  </si>
+  <si>
+    <t>0.11845136599873796</t>
+  </si>
+  <si>
+    <t>0.05931300205741874</t>
+  </si>
+  <si>
+    <t>0.029635427279216642</t>
+  </si>
+  <si>
+    <t>0.2388446080371519</t>
+  </si>
+  <si>
+    <t>0.12026769710194563</t>
+  </si>
+  <si>
+    <t>0.060246985799483066</t>
+  </si>
+  <si>
+    <t>0.030124964745758098</t>
+  </si>
+  <si>
+    <t>0.11401186254754903</t>
+  </si>
+  <si>
+    <t>0.05039376936268947</t>
+  </si>
+  <si>
+    <t>0.029935447758903777</t>
+  </si>
+  <si>
+    <t>0.030924145137555037</t>
+  </si>
+  <si>
+    <t>0.12615410716823838</t>
+  </si>
+  <si>
+    <t>0.06201230629495558</t>
+  </si>
+  <si>
+    <t>0.030618156478195546</t>
+  </si>
+  <si>
+    <t>0.015040810325918086</t>
+  </si>
+  <si>
+    <t>0.12676977799125377</t>
+  </si>
+  <si>
+    <t>0.06244303619776159</t>
+  </si>
+  <si>
+    <t>0.031056009907325932</t>
+  </si>
+  <si>
+    <t>0.015455475038622657</t>
+  </si>
+  <si>
+    <t>0.12696162450576476</t>
+  </si>
+  <si>
+    <t>0.062523801140416</t>
+  </si>
+  <si>
+    <t>0.031152364867956917</t>
+  </si>
+  <si>
+    <t>0.015538918135101776</t>
   </si>
 </sst>
 </file>
@@ -531,14 +558,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -854,12 +881,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -952,12 +979,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -1050,12 +1077,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
@@ -1157,13 +1184,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
@@ -1175,12 +1202,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -1204,16 +1231,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1221,16 +1248,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1238,41 +1265,41 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" t="s">
@@ -1280,12 +1307,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
@@ -1309,16 +1336,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1326,16 +1353,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1343,41 +1370,41 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" t="s">
@@ -1406,16 +1433,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1423,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1440,41 +1467,41 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
